--- a/2doAnyo/notas.xlsx
+++ b/2doAnyo/notas.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordi\Documents\IA\IA\2doAnyo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordiblascolozano/Documents/IA/2doAnyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{245EE640-0E06-4EB8-A376-DFFBCE9E0CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E9A642-1828-4C4B-819C-46AA8C0547FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1245" windowWidth="28155" windowHeight="15345" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
+    <workbookView xWindow="540" yWindow="1340" windowWidth="28160" windowHeight="15340" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -585,48 +597,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -961,18 +973,18 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1021,10 +1033,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1081,7 +1096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1127,7 +1142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M10" t="s">
         <v>23</v>
       </c>
@@ -1152,13 +1167,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13">
         <f>SUM(B3:B5) * 0.15 +B6 * 0.05 + B7 *0.5 + B8*0.1</f>
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>

--- a/2doAnyo/notas.xlsx
+++ b/2doAnyo/notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordiblascolozano/Documents/IA/2doAnyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E9A642-1828-4C4B-819C-46AA8C0547FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B029EC-9D78-CA41-8309-2FAD19AEEF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1340" windowWidth="28160" windowHeight="15340" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="33280" windowHeight="19060" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -973,7 +973,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1061,6 +1061,9 @@
       <c r="P3" t="s">
         <v>11</v>
       </c>
+      <c r="Q3">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1141,6 +1144,9 @@
       <c r="P8" t="s">
         <v>22</v>
       </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
@@ -1158,6 +1164,9 @@
       <c r="P9" t="s">
         <v>23</v>
       </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="M10" t="s">
@@ -1200,8 +1209,8 @@
         <v>25</v>
       </c>
       <c r="Q13">
-        <f>SUM(Q3:Q5)/3 + SUM(Q8:Q10) /3</f>
-        <v>0</v>
+        <f>(SUM(Q3:Q5)/3 + SUM(Q8:Q10) /3)/2</f>
+        <v>3.291666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/2doAnyo/notas.xlsx
+++ b/2doAnyo/notas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordiblascolozano/Documents/IA/2doAnyo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordi\Documents\IA\IA\2doAnyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B029EC-9D78-CA41-8309-2FAD19AEEF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F9F37-F5A0-4AFF-90FF-3FE7FFF69C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="33280" windowHeight="19060" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -597,48 +597,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -973,18 +973,18 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1078,11 +1078,14 @@
       <c r="M4" t="s">
         <v>14</v>
       </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
       <c r="P4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1145,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>13</v>
       </c>
@@ -1161,14 +1164,14 @@
       <c r="M9" t="s">
         <v>22</v>
       </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
       <c r="P9" t="s">
         <v>23</v>
       </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1203,14 +1206,14 @@
       </c>
       <c r="N13">
         <f>SUM(N3:N6)/4 * 0.15 + N7*0.45 + SUM(N9:N10) *0.2</f>
-        <v>0.24149999999999999</v>
+        <v>2.4664999999999999</v>
       </c>
       <c r="P13" t="s">
         <v>25</v>
       </c>
       <c r="Q13">
         <f>(SUM(Q3:Q5)/3 + SUM(Q8:Q10) /3)/2</f>
-        <v>3.291666666666667</v>
+        <v>2.9583333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/2doAnyo/notas.xlsx
+++ b/2doAnyo/notas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordi\Documents\IA\IA\2doAnyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820F9F37-F5A0-4AFF-90FF-3FE7FFF69C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3FFB27-10C1-4BBE-87B4-11B9897457AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,6 +1069,9 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>3.8</v>
+      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>5.15</v>
       </c>
       <c r="P4" t="s">
         <v>13</v>
@@ -1185,7 +1188,7 @@
       </c>
       <c r="B13">
         <f>SUM(B3:B5) * 0.15 +B6 * 0.05 + B7 *0.5 + B8*0.1</f>
-        <v>0.66</v>
+        <v>1.2299999999999998</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1206,7 +1209,7 @@
       </c>
       <c r="N13">
         <f>SUM(N3:N6)/4 * 0.15 + N7*0.45 + SUM(N9:N10) *0.2</f>
-        <v>2.4664999999999999</v>
+        <v>2.434625</v>
       </c>
       <c r="P13" t="s">
         <v>25</v>

--- a/2doAnyo/notas.xlsx
+++ b/2doAnyo/notas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordi\Documents\IA\IA\2doAnyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3FFB27-10C1-4BBE-87B4-11B9897457AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B1F8AA-BB34-4C27-A2BC-9F5F11A5EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>ALGORITMIA</t>
   </si>
@@ -973,7 +973,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,12 +1072,12 @@
       <c r="B4">
         <v>3.8</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
@@ -1086,32 +1086,38 @@
       </c>
       <c r="P4" t="s">
         <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>8.9</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1134,7 @@
       </c>
       <c r="J7">
         <f>ROUND(SUM(J3:J5)/3,2)</f>
-        <v>2.33</v>
+        <v>8.33</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
@@ -1173,6 +1179,9 @@
       <c r="P9" t="s">
         <v>23</v>
       </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
@@ -1181,6 +1190,9 @@
       <c r="P10" t="s">
         <v>24</v>
       </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1202,7 +1214,7 @@
       </c>
       <c r="J13">
         <f>(J7+J9)/2</f>
-        <v>1.165</v>
+        <v>4.165</v>
       </c>
       <c r="M13" t="s">
         <v>25</v>
@@ -1216,7 +1228,7 @@
       </c>
       <c r="Q13">
         <f>(SUM(Q3:Q5)/3 + SUM(Q8:Q10) /3)/2</f>
-        <v>2.9583333333333335</v>
+        <v>8.6083333333333343</v>
       </c>
     </row>
   </sheetData>

--- a/2doAnyo/notas.xlsx
+++ b/2doAnyo/notas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordi\Documents\IA\IA\2doAnyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B1F8AA-BB34-4C27-A2BC-9F5F11A5EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29FF90-3B47-434B-9661-12B1BC24E905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
+    <workbookView xWindow="14355" yWindow="3090" windowWidth="17265" windowHeight="11010" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -32,17 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
-  <si>
-    <t>ALGORITMIA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>notas</t>
   </si>
   <si>
-    <t>INFERENCIA</t>
-  </si>
-  <si>
     <t>PROG. AVANZADA</t>
   </si>
   <si>
@@ -52,12 +46,6 @@
     <t>SO</t>
   </si>
   <si>
-    <t>PARCIALES</t>
-  </si>
-  <si>
-    <t>TESTS</t>
-  </si>
-  <si>
     <t>PRACTICAS</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>test3</t>
   </si>
   <si>
-    <t>parcial4</t>
-  </si>
-  <si>
     <t>test4</t>
   </si>
   <si>
@@ -95,9 +80,6 @@
   </si>
   <si>
     <t>media Parciales</t>
-  </si>
-  <si>
-    <t>Trabajo opc.</t>
   </si>
   <si>
     <t>practica1</t>
@@ -970,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40045520-137E-42F1-9915-FE7F21EEB44C}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="I1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,247 +966,170 @@
     <col min="13" max="13" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="M2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
-        <v>1</v>
+      <c r="P2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
       </c>
       <c r="J3">
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>6.44</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q3">
         <v>7.75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>3.8</v>
-      </c>
+    <row r="4" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>5.15</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q4">
         <v>8.9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
+    <row r="5" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
+    <row r="6" spans="9:17" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <f>ROUND(SUM(J3:J5)/3,2)</f>
         <v>8.33</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="9:17" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
+    <row r="9" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>10</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:17" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q10">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <f>SUM(B3:B5) * 0.15 +B6 * 0.05 + B7 *0.5 + B8*0.1</f>
-        <v>1.2299999999999998</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <f xml:space="preserve"> SUM(F3:F6)/4 * 0.1 + SUM(F8:F9) * 0.45</f>
-        <v>0.25</v>
-      </c>
+    <row r="13" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J13">
         <f>(J7+J9)/2</f>
         <v>4.165</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N13">
         <f>SUM(N3:N6)/4 * 0.15 + N7*0.45 + SUM(N9:N10) *0.2</f>
         <v>2.434625</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q13">
         <f>(SUM(Q3:Q5)/3 + SUM(Q8:Q10) /3)/2</f>

--- a/2doAnyo/notas.xlsx
+++ b/2doAnyo/notas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordi\Documents\IA\IA\2doAnyo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordiblascolozano/Documents/IA/2doAnyo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD29FF90-3B47-434B-9661-12B1BC24E905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D7ADC-4A29-724B-B569-AE8DAF571BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="3090" windowWidth="17265" windowHeight="11010" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
+    <workbookView xWindow="14360" yWindow="3100" windowWidth="17260" windowHeight="11020" xr2:uid="{267FE34C-BB4D-4597-B125-0CD3E4C301D3}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -579,48 +579,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,19 +954,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40045520-137E-42F1-9915-FE7F21EEB44C}">
   <dimension ref="I1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
         <v>1</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>4</v>
       </c>
@@ -997,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>7</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="4" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="5" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>11</v>
       </c>
@@ -1047,19 +1047,25 @@
       <c r="M5" t="s">
         <v>12</v>
       </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
       <c r="P5" t="s">
         <v>11</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>6.25</v>
       </c>
     </row>
-    <row r="6" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:17" x14ac:dyDescent="0.2">
       <c r="M6" t="s">
         <v>13</v>
       </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:17" x14ac:dyDescent="0.2">
       <c r="M8" t="s">
         <v>4</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>14</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:17" x14ac:dyDescent="0.2">
       <c r="M10" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:17" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>19</v>
       </c>
@@ -1126,14 +1132,14 @@
       </c>
       <c r="N13">
         <f>SUM(N3:N6)/4 * 0.15 + N7*0.45 + SUM(N9:N10) *0.2</f>
-        <v>2.434625</v>
+        <v>2.622125</v>
       </c>
       <c r="P13" t="s">
         <v>19</v>
       </c>
       <c r="Q13">
         <f>(SUM(Q3:Q5)/3 + SUM(Q8:Q10) /3)/2</f>
-        <v>8.6083333333333343</v>
+        <v>8.4833333333333343</v>
       </c>
     </row>
   </sheetData>
